--- a/Output/ARYA VYSYA.xlsx
+++ b/Output/ARYA VYSYA.xlsx
@@ -4714,7 +4714,11 @@
       <c r="T2" t="n">
         <v>24</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -7292,7 +7296,11 @@
       <c r="T2" t="n">
         <v>22</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -10574,7 +10582,11 @@
       <c r="T2" t="n">
         <v>27</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -17102,7 +17114,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -20048,7 +20064,11 @@
       <c r="T2" t="n">
         <v>28</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -22119,7 +22139,11 @@
       <c r="T2" t="n">
         <v>24</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -25244,7 +25268,11 @@
       <c r="T2" t="n">
         <v>29</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -26562,7 +26590,11 @@
       <c r="T2" t="n">
         <v>29</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -27874,7 +27906,11 @@
       <c r="T2" t="n">
         <v>28</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
